--- a/data/October datasets/Iran-potato.xlsx
+++ b/data/October datasets/Iran-potato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\FINAL VERSION\data\October datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Final version v1 - 16 Jan\CarbonEmissionPrediction\data - changed features name\October datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3BA695-2975-482F-B61C-01923CAD5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D34CF9-3228-43D1-891B-8BE0A4149639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{84CE8326-AF93-461C-8898-13608CF1CF0C}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84CE8326-AF93-461C-8898-13608CF1CF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,93 +27,74 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Cultivated area (hectares)</t>
-  </si>
-  <si>
-    <t>The amount of animal manure for the above amount of cultivation (tons)</t>
-  </si>
-  <si>
-    <t>The amount of phosphate fertilizer for the amount of the above surface (kg)</t>
-  </si>
-  <si>
-    <t>The amount of potassium fertilizer for the above level (kg)</t>
-  </si>
-  <si>
-    <t>Amount of seed required for the above level (kg)</t>
-  </si>
-  <si>
     <t>Irrigation type</t>
   </si>
   <si>
     <t>Irrigation frequency</t>
   </si>
   <si>
-    <t>Amount of time spent for each irrigation (hours)</t>
+    <t>Cultivated area (hec)</t>
   </si>
   <si>
-    <t>The quantity of vinegar for the above level (kg)</t>
+    <t>Animal manure (tons)</t>
   </si>
   <si>
-    <t>Amount of toxins needed for the above level (kg)</t>
+    <t>Phosphate (kg)</t>
   </si>
   <si>
-    <t>The amount of product harvested from the above level (kilograms)</t>
+    <t>Potassium (kg)</t>
   </si>
   <si>
-    <t>The amount of fuel for the plow</t>
+    <t>Nitrogen (kg)</t>
   </si>
   <si>
-    <t>Amount of fuel for the chisel</t>
+    <t>Seed (kg)</t>
   </si>
   <si>
-    <t>Total Amount of water consumed</t>
+    <t xml:space="preserve"> Irrigation time (hrs)</t>
   </si>
   <si>
-    <t>Total Amount of fuel consumed</t>
+    <t>Vinegar (kg)</t>
   </si>
   <si>
-    <t>Total Amount of Gasoil consumed</t>
+    <t>Toxin (kg)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Total Amount of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF202124"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>Butan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202124"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t xml:space="preserve"> consumed(Bout)</t>
-    </r>
+    <t>Yield (kg)</t>
   </si>
   <si>
-    <t>Total Amount of electricity</t>
+    <t>Plughing diesel (lit)</t>
   </si>
   <si>
-    <t>Carbon emission_Cool Farm Tool</t>
+    <t xml:space="preserve"> Chisel diesel (lit)</t>
   </si>
   <si>
-    <t>Amount of nitrogen fertilizer for the above level (kg)</t>
+    <t>Water (m3)</t>
   </si>
   <si>
-    <t>Total of Carbon emission(calculated manually)</t>
+    <t>Diesel (lit)</t>
+  </si>
+  <si>
+    <t>Petrol (lit)</t>
+  </si>
+  <si>
+    <t>Butane (lit)</t>
+  </si>
+  <si>
+    <t>Electricity (kwh)</t>
+  </si>
+  <si>
+    <t>Calculated carbon emission (kg co2-eq)</t>
+  </si>
+  <si>
+    <t>Carbon emission-CFT (kg co2-eq)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,19 +110,8 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -164,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,21 +170,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -224,17 +179,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDA98C9-101B-4429-B197-E15012198F2D}">
   <dimension ref="A1:U262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U262"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -563,69 +518,69 @@
     <col min="21" max="21" width="50.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="44" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:21" ht="44" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.65" thickBot="1">
@@ -1161,7 +1116,7 @@
       <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
       <c r="D10" s="2">
